--- a/Documentation/JBD_PlanifInitial.xlsx
+++ b/Documentation/JBD_PlanifInitial.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="11" r:id="rId1"/>
@@ -1242,89 +1242,7 @@
     <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightDown">
-          <fgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="8" tint="-0.24994659260841701"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1503,15 +1421,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListeTâches" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumn" dxfId="19"/>
-      <tableStyleElement type="lastColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3233,33 +3151,33 @@
     <mergeCell ref="AB4:AH4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:AO6">
-    <cfRule type="expression" dxfId="13" priority="42">
+    <cfRule type="expression" dxfId="6" priority="42">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:AN24">
-    <cfRule type="expression" dxfId="12" priority="40">
+    <cfRule type="expression" dxfId="5" priority="40">
       <formula>AND(début_tâche&lt;=G$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=G$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="35" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=G$5,début_tâche&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8:AO22">
-    <cfRule type="expression" dxfId="10" priority="45">
+    <cfRule type="expression" dxfId="3" priority="45">
       <formula>AND(TODAY()&gt;=G$5,TODAY()&lt;H$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO7:AO22">
-    <cfRule type="expression" dxfId="9" priority="46">
+    <cfRule type="expression" dxfId="2" priority="46">
       <formula>AND(début_tâche&lt;=AO$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=AO$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="47" stopIfTrue="1">
       <formula>AND(fin_tâche&gt;=AO$5,début_tâche&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8 I8:I22 L8:M22 P8:P22 S8:T22 W8:W22 Z6 AA8 Z6 Z8:AA22 AD8:AH22 AK8:AO22">
-    <cfRule type="containsBlanks" dxfId="7" priority="34">
+    <cfRule type="containsBlanks" dxfId="0" priority="34">
       <formula>LEN(TRIM(I6))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3270,7 +3188,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -3290,26 +3208,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3597,6 +3495,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
@@ -3606,25 +3524,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3643,4 +3542,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>